--- a/www/terminologies/ASS-X16-CorrespondanceType-Classe-DMP.xlsx
+++ b/www/terminologies/ASS-X16-CorrespondanceType-Classe-DMP.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="151">
   <si>
     <t>Property</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Publisher</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>France</t>
   </si>
   <si>
     <t>Description</t>
@@ -595,7 +601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -695,20 +701,28 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>23</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -726,958 +740,958 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s" s="1">
         <v>24</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>22</v>
-      </c>
       <c r="E1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D53" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D54" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D55" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D56" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D58" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D59" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D60" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D61" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D62" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D63" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D64" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D65" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D66" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D67" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D68" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D69" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D70" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D71" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D72" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D73" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E73" s="2"/>
     </row>
@@ -1696,438 +1710,438 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s" s="1">
         <v>24</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>22</v>
-      </c>
       <c r="E1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -2146,48 +2160,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s" s="1">
         <v>24</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>22</v>
-      </c>
       <c r="E1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E3" s="2"/>
     </row>

--- a/www/terminologies/ASS-X16-CorrespondanceType-Classe-DMP.xlsx
+++ b/www/terminologies/ASS-X16-CorrespondanceType-Classe-DMP.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="158">
   <si>
     <t>Property</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20240223120000</t>
+    <t>20240927120000</t>
   </si>
   <si>
     <t>Name</t>
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-23T12:00:00+01:00</t>
+    <t>2024-09-27T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -89,15 +89,18 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J66-TypeCode-DMP/FHIR/JDV-J66-TypeCode-DMP</t>
+  </si>
+  <si>
     <t>Target</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J57-ClassCode-DMP/FHIR/JDV-J57-ClassCode-DMP</t>
   </si>
   <si>
-    <t>Source</t>
-  </si>
-  <si>
     <t>Display</t>
   </si>
   <si>
@@ -167,6 +170,9 @@
     <t>44</t>
   </si>
   <si>
+    <t>28617-9</t>
+  </si>
+  <si>
     <t>28653-4</t>
   </si>
   <si>
@@ -176,6 +182,9 @@
     <t>34112-3</t>
   </si>
   <si>
+    <t>34120-6</t>
+  </si>
+  <si>
     <t>34133-9</t>
   </si>
   <si>
@@ -239,6 +248,9 @@
     <t>95</t>
   </si>
   <si>
+    <t>60280-5</t>
+  </si>
+  <si>
     <t>60568-3</t>
   </si>
   <si>
@@ -293,6 +305,9 @@
     <t>77604-7</t>
   </si>
   <si>
+    <t>78341-5</t>
+  </si>
+  <si>
     <t>78489-2</t>
   </si>
   <si>
@@ -341,6 +356,9 @@
     <t>88348-8</t>
   </si>
   <si>
+    <t>89233-1</t>
+  </si>
+  <si>
     <t>89235-6</t>
   </si>
   <si>
@@ -357,6 +375,9 @@
   </si>
   <si>
     <t>96874-3</t>
+  </si>
+  <si>
+    <t>101881-1</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_A05-TypeDocComplementaire/FHIR/TRE-A05-TypeDocComplementaire</t>
@@ -601,7 +622,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -725,6 +746,14 @@
         <v>25</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -732,7 +761,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -740,360 +769,360 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s" s="1">
         <v>26</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>28</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -1103,10 +1132,10 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2"/>
     </row>
@@ -1116,101 +1145,101 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E36" s="2"/>
     </row>
@@ -1220,10 +1249,10 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E37" s="2"/>
     </row>
@@ -1233,23 +1262,23 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="E39" s="2"/>
     </row>
@@ -1259,10 +1288,10 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -1272,10 +1301,10 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E41" s="2"/>
     </row>
@@ -1285,62 +1314,62 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="E46" s="2"/>
     </row>
@@ -1350,10 +1379,10 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E47" s="2"/>
     </row>
@@ -1363,10 +1392,10 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E48" s="2"/>
     </row>
@@ -1376,101 +1405,101 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D53" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D54" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D55" t="s" s="2">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D56" t="s" s="2">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="E56" s="2"/>
     </row>
@@ -1480,10 +1509,10 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E57" s="2"/>
     </row>
@@ -1493,10 +1522,10 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D58" t="s" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E58" s="2"/>
     </row>
@@ -1506,10 +1535,10 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D59" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E59" s="2"/>
     </row>
@@ -1519,181 +1548,259 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D60" t="s" s="2">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D61" t="s" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D62" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D63" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D64" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D65" t="s" s="2">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="E65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D66" t="s" s="2">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D67" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D68" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D69" t="s" s="2">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="E69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D70" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D71" t="s" s="2">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D72" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D73" t="s" s="2">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E73" s="2"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D74" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D76" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D77" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D78" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D79" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E79" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1710,438 +1817,438 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s" s="1">
         <v>26</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>28</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -2160,48 +2267,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s" s="1">
         <v>26</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>28</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E3" s="2"/>
     </row>

--- a/www/terminologies/ASS-X16-CorrespondanceType-Classe-DMP.xlsx
+++ b/www/terminologies/ASS-X16-CorrespondanceType-Classe-DMP.xlsx
@@ -107,13 +107,13 @@
     <t>Relationship</t>
   </si>
   <si>
-    <t>http://loinc.org</t>
+    <t>http://loinc.org|3.0.1</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_A03-ClasseDocument/FHIR/TRE-A03-ClasseDocument</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_A03-ClasseDocument/FHIR/TRE-A03-ClasseDocument|20231215120000</t>
   </si>
   <si>
     <t>11369-6</t>
@@ -380,7 +380,7 @@
     <t>101881-1</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_A05-TypeDocComplementaire/FHIR/TRE-A05-TypeDocComplementaire</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_A05-TypeDocComplementaire/FHIR/TRE-A05-TypeDocComplementaire|20240329120000</t>
   </si>
   <si>
     <t>AUTORIS-SOINS</t>
@@ -479,10 +479,10 @@
     <t>PRESC-ORTHOPTIE</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_A12-NomenclatureASTM/FHIR/TRE-A12-NomenclatureASTM</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_A10-NomenclatureURN/FHIR/TRE-A10-NomenclatureURN</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_A12-NomenclatureASTM/FHIR/TRE-A12-NomenclatureASTM|20231215120000</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_A10-NomenclatureURN/FHIR/TRE-A10-NomenclatureURN|20231215120000</t>
   </si>
   <si>
     <t>E1762</t>
